--- a/calibration_5_colors_w_MEA_20230403.xlsx
+++ b/calibration_5_colors_w_MEA_20230403.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20250225" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="20250304" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="20250309" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t xml:space="preserve">V</t>
   </si>
@@ -68,6 +69,21 @@
   </si>
   <si>
     <t xml:space="preserve">Indirect filter/no_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA3_385Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA3_625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA3_530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA3_490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA3_415</t>
   </si>
 </sst>
 </file>
@@ -250,7 +266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250225'!$B$1:$B$1</c:f>
+              <c:f>'20250304'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,7 +485,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -490,7 +505,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -511,7 +525,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -532,7 +545,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -553,7 +565,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -574,7 +585,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -595,7 +605,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -616,7 +625,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -637,7 +645,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -658,7 +665,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -679,7 +685,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -700,7 +705,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -721,7 +725,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -742,7 +745,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -763,7 +765,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -784,7 +785,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -803,7 +803,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -819,7 +818,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'20250225'!$A$5:$A$20</c:f>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -876,7 +875,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250225'!$B$5:$B$20</c:f>
+              <c:f>'20250304'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -933,11 +932,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27965239"/>
-        <c:axId val="37198683"/>
+        <c:axId val="43522022"/>
+        <c:axId val="35000127"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27965239"/>
+        <c:axId val="43522022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,11 +968,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37198683"/>
+        <c:crossAx val="35000127"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37198683"/>
+        <c:axId val="35000127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1014,860 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27965239"/>
+        <c:crossAx val="43522022"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250309'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>violet (385)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:solidFill>
+                  <a:srgbClr val="4a7ebb"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250309'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250309'!$C$4:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.241</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.279</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="4063739"/>
+        <c:axId val="54815804"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4063739"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54815804"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54815804"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4063739"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1083,7 +1935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250225'!$C$1:$C$1</c:f>
+              <c:f>'20250304'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1302,7 +2154,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1323,7 +2174,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1344,7 +2194,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1365,7 +2214,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1386,7 +2234,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1407,7 +2254,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1428,7 +2274,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1449,7 +2294,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1470,7 +2314,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1491,7 +2334,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1512,7 +2354,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1533,7 +2374,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1554,7 +2394,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1575,7 +2414,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1596,7 +2434,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1617,7 +2454,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1636,7 +2472,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1652,7 +2487,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'20250225'!$A$5:$A$20</c:f>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1709,7 +2544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250225'!$C$5:$C$20</c:f>
+              <c:f>'20250304'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1766,11 +2601,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91728387"/>
-        <c:axId val="85467243"/>
+        <c:axId val="17490089"/>
+        <c:axId val="35226831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91728387"/>
+        <c:axId val="17490089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,11 +2637,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85467243"/>
+        <c:crossAx val="35226831"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85467243"/>
+        <c:axId val="35226831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +2683,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91728387"/>
+        <c:crossAx val="17490089"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1913,10 +2748,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127542886295517"/>
-          <c:y val="0.0514278799612778"/>
-          <c:w val="0.675467125821057"/>
-          <c:h val="0.797555663117135"/>
+          <c:x val="0.127538638395708"/>
+          <c:y val="0.051434103836379"/>
+          <c:w val="0.675437476050581"/>
+          <c:h val="0.797410141595062"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1927,7 +2762,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250225'!$E$1:$E$1</c:f>
+              <c:f>'20250304'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2146,7 +2981,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2167,7 +3001,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2188,7 +3021,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2209,7 +3041,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2230,7 +3061,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2251,7 +3081,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2272,7 +3101,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2293,7 +3121,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2314,7 +3141,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2335,7 +3161,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2356,7 +3181,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2377,7 +3201,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2398,7 +3221,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2419,7 +3241,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2440,7 +3261,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2461,7 +3281,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2480,7 +3299,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2496,7 +3314,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'20250225'!$A$5:$A$20</c:f>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2553,7 +3371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250225'!$E$5:$E$20</c:f>
+              <c:f>'20250304'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2610,11 +3428,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="40969278"/>
-        <c:axId val="77512174"/>
+        <c:axId val="91433228"/>
+        <c:axId val="58766384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40969278"/>
+        <c:axId val="91433228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,11 +3464,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77512174"/>
+        <c:crossAx val="58766384"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77512174"/>
+        <c:axId val="58766384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +3510,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40969278"/>
+        <c:crossAx val="91433228"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2760,7 +3578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250225'!$D$1:$D$1</c:f>
+              <c:f>'20250304'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2979,7 +3797,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3000,7 +3817,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3021,7 +3837,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3042,7 +3857,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3063,7 +3877,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3084,7 +3897,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3105,7 +3917,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3126,7 +3937,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3147,7 +3957,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3168,7 +3977,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3189,7 +3997,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3210,7 +4017,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3231,7 +4037,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3252,7 +4057,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3273,7 +4077,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3294,7 +4097,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3313,7 +4115,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3329,7 +4130,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'20250225'!$A$5:$A$20</c:f>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3386,7 +4187,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250225'!$D$5:$D$20</c:f>
+              <c:f>'20250304'!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3443,11 +4244,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72112643"/>
-        <c:axId val="2803615"/>
+        <c:axId val="81674879"/>
+        <c:axId val="27492598"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72112643"/>
+        <c:axId val="81674879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,11 +4280,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2803615"/>
+        <c:crossAx val="27492598"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2803615"/>
+        <c:axId val="27492598"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +4326,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72112643"/>
+        <c:crossAx val="81674879"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3593,7 +4394,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250225'!$F$1:$F$1</c:f>
+              <c:f>'20250304'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3812,7 +4613,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3833,7 +4633,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3854,7 +4653,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3875,7 +4673,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3896,7 +4693,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3917,7 +4713,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3938,7 +4733,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3959,7 +4753,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3980,7 +4773,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4001,7 +4793,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4022,7 +4813,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4043,7 +4833,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4064,7 +4853,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4085,7 +4873,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4106,7 +4893,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4127,7 +4913,6 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4146,7 +4931,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4162,7 +4946,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'20250225'!$A$5:$A$20</c:f>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4219,7 +5003,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250225'!$F$5:$F$20</c:f>
+              <c:f>'20250304'!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4276,11 +5060,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94847414"/>
-        <c:axId val="75696180"/>
+        <c:axId val="42797945"/>
+        <c:axId val="66063417"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94847414"/>
+        <c:axId val="42797945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4312,11 +5096,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75696180"/>
+        <c:crossAx val="66063417"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75696180"/>
+        <c:axId val="66063417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +5142,3282 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94847414"/>
+        <c:crossAx val="42797945"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250309'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>red (625)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250309'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250309'!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="49914063"/>
+        <c:axId val="44757806"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49914063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44757806"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44757806"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49914063"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127538638395708"/>
+          <c:y val="0.051434103836379"/>
+          <c:w val="0.675437476050581"/>
+          <c:h val="0.797410141595062"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250309'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blue (415)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250309'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250309'!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="133834"/>
+        <c:axId val="42922469"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="133834"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42922469"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42922469"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133834"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250309'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>green (490)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250309'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250309'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="72353768"/>
+        <c:axId val="16567670"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72353768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16567670"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16567670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72353768"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250309'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>violet (385)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250309'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250309'!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.943</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="84126504"/>
+        <c:axId val="28389253"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84126504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28389253"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28389253"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84126504"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4422,9 +8481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4432,8 +8491,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9714960" y="1828800"/>
-        <a:ext cx="5643720" cy="2975040"/>
+        <a:off x="10060560" y="1828800"/>
+        <a:ext cx="5635440" cy="2974680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4452,9 +8511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4462,8 +8521,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9734040" y="5562000"/>
-        <a:ext cx="5643720" cy="2973960"/>
+        <a:off x="10079640" y="5562000"/>
+        <a:ext cx="5635440" cy="2973600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4482,9 +8541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>360720</xdr:colOff>
+      <xdr:colOff>360360</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4492,8 +8551,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9809280" y="9247320"/>
-        <a:ext cx="5644800" cy="2974680"/>
+        <a:off x="10154880" y="9247320"/>
+        <a:ext cx="5636520" cy="2974320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4512,9 +8571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4523,7 +8582,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="927000" y="9999360"/>
-        <a:ext cx="5887800" cy="3622680"/>
+        <a:ext cx="5880960" cy="3622320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4542,9 +8601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>278640</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4553,7 +8612,162 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="309600" y="5380560"/>
-        <a:ext cx="5651640" cy="3325320"/>
+        <a:ext cx="5646240" cy="3324960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10695600" y="1828800"/>
+        <a:ext cx="5635440" cy="2974680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>362520</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>360360</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10789920" y="9247320"/>
+        <a:ext cx="5636520" cy="2974320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>927000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422280</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="927000" y="9999360"/>
+        <a:ext cx="5807880" cy="3622320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>309600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509760</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 5_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="309600" y="5380560"/>
+        <a:ext cx="5572800" cy="3324960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>925200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 5_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8177400" y="5347800"/>
+        <a:ext cx="5731560" cy="3324960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4573,13 +8787,14 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O29" activeCellId="1" sqref="C4:C20 O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,19 +9236,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>26300</v>
+        <v>28800</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>115</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,23 +9257,583 @@
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B23/B20</f>
-        <v>1168.88888888889</v>
+        <v>1280</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23/C20</f>
-        <v>160.720025715204</v>
+        <v>1031.82256509161</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">D23/D20</f>
-        <v>717.592592592593</v>
+        <v>1046.2962962963</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">E23/E20</f>
-        <v>673.076923076923</v>
+        <v>826.923076923077</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">F23/F20</f>
-        <v>54.6058879392213</v>
+        <v>111.585944919278</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">B25/B20</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">C25/C20</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">D25/D20</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">E25/E20</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">F25/F20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.0579</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.1204</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.1912</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.2219</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.3115</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.3314</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>2.343</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B23/B20</f>
+        <v>320.102432778489</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">C23/C20</f>
+        <v>228.668941979522</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">D23/D20</f>
+        <v>209.606986899563</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">E23/E20</f>
+        <v>141.822570911285</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">F23/F20</f>
+        <v>19.2061459667093</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/calibration_5_colors_w_MEA_20230403.xlsx
+++ b/calibration_5_colors_w_MEA_20230403.xlsx
@@ -485,6 +485,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -505,6 +506,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -525,6 +527,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -545,6 +548,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -565,6 +569,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -585,6 +590,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -605,6 +611,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -625,6 +632,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -645,6 +653,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -665,6 +674,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -685,6 +695,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -705,6 +716,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -725,6 +737,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -745,6 +758,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -765,6 +779,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -785,6 +800,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -803,6 +819,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -932,11 +949,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="43522022"/>
-        <c:axId val="35000127"/>
+        <c:axId val="40592446"/>
+        <c:axId val="77391761"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43522022"/>
+        <c:axId val="40592446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,11 +985,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35000127"/>
+        <c:crossAx val="77391761"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35000127"/>
+        <c:axId val="77391761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1031,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43522022"/>
+        <c:crossAx val="40592446"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1291,7 +1308,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
               <a:ln w="28440">
                 <a:solidFill>
@@ -1315,6 +1332,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1335,6 +1353,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1355,6 +1374,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1375,6 +1395,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1395,6 +1416,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1415,6 +1437,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1435,6 +1458,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1455,6 +1479,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1475,6 +1500,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1495,6 +1521,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1515,6 +1542,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1535,6 +1563,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1555,6 +1584,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1575,6 +1605,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1595,6 +1626,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1615,6 +1647,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1635,6 +1668,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1653,6 +1687,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1763,7 +1798,7 @@
                   <c:v>0.168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21</c:v>
+                  <c:v>0.196</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.219</c:v>
@@ -1785,11 +1820,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="4063739"/>
-        <c:axId val="54815804"/>
+        <c:axId val="24851609"/>
+        <c:axId val="59651040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4063739"/>
+        <c:axId val="24851609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,11 +1856,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54815804"/>
+        <c:crossAx val="59651040"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54815804"/>
+        <c:axId val="59651040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1902,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4063739"/>
+        <c:crossAx val="24851609"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2154,6 +2189,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2174,6 +2210,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2194,6 +2231,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2214,6 +2252,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2234,6 +2273,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2254,6 +2294,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2274,6 +2315,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2294,6 +2336,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2314,6 +2357,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2334,6 +2378,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2354,6 +2399,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2374,6 +2420,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2394,6 +2441,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2414,6 +2462,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2434,6 +2483,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2454,6 +2504,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2472,6 +2523,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2601,11 +2653,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="17490089"/>
-        <c:axId val="35226831"/>
+        <c:axId val="23236805"/>
+        <c:axId val="91615137"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17490089"/>
+        <c:axId val="23236805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,11 +2689,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35226831"/>
+        <c:crossAx val="91615137"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35226831"/>
+        <c:axId val="91615137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17490089"/>
+        <c:crossAx val="23236805"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2748,10 +2800,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127538638395708"/>
-          <c:y val="0.051434103836379"/>
-          <c:w val="0.675437476050581"/>
-          <c:h val="0.797410141595062"/>
+          <c:x val="0.127521062037273"/>
+          <c:y val="0.051440329218107"/>
+          <c:w val="0.675389328567781"/>
+          <c:h val="0.797264584846284"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2981,6 +3033,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3001,6 +3054,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3021,6 +3075,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3041,6 +3096,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3061,6 +3117,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3081,6 +3138,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3101,6 +3159,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3121,6 +3180,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3141,6 +3201,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3161,6 +3222,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3181,6 +3243,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3201,6 +3264,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3221,6 +3285,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3241,6 +3306,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3261,6 +3327,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3281,6 +3348,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3299,6 +3367,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3428,11 +3497,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91433228"/>
-        <c:axId val="58766384"/>
+        <c:axId val="41257559"/>
+        <c:axId val="13080789"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91433228"/>
+        <c:axId val="41257559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,11 +3533,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58766384"/>
+        <c:crossAx val="13080789"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58766384"/>
+        <c:axId val="13080789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,7 +3579,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91433228"/>
+        <c:crossAx val="41257559"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3797,6 +3866,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3817,6 +3887,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3837,6 +3908,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3857,6 +3929,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3877,6 +3950,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3897,6 +3971,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3917,6 +3992,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3937,6 +4013,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3957,6 +4034,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3977,6 +4055,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3997,6 +4076,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4017,6 +4097,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4037,6 +4118,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4057,6 +4139,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4077,6 +4160,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4097,6 +4181,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4115,6 +4200,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4244,11 +4330,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81674879"/>
-        <c:axId val="27492598"/>
+        <c:axId val="18469973"/>
+        <c:axId val="31887442"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81674879"/>
+        <c:axId val="18469973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,11 +4366,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27492598"/>
+        <c:crossAx val="31887442"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27492598"/>
+        <c:axId val="31887442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4326,7 +4412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81674879"/>
+        <c:crossAx val="18469973"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4613,6 +4699,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4633,6 +4720,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4653,6 +4741,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4673,6 +4762,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4693,6 +4783,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4713,6 +4804,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4733,6 +4825,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4753,6 +4846,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4773,6 +4867,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4793,6 +4888,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4813,6 +4909,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4833,6 +4930,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4853,6 +4951,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4873,6 +4972,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4893,6 +4993,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4913,6 +5014,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4931,6 +5033,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5060,11 +5163,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="42797945"/>
-        <c:axId val="66063417"/>
+        <c:axId val="45707909"/>
+        <c:axId val="4692987"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42797945"/>
+        <c:axId val="45707909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,11 +5199,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66063417"/>
+        <c:crossAx val="4692987"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66063417"/>
+        <c:axId val="4692987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,7 +5245,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42797945"/>
+        <c:crossAx val="45707909"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5429,6 +5532,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5449,6 +5553,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5469,6 +5574,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5489,6 +5595,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5509,6 +5616,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5529,6 +5637,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5549,6 +5658,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5569,6 +5679,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5589,6 +5700,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5609,6 +5721,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5629,6 +5742,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5649,6 +5763,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5669,6 +5784,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5689,6 +5805,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5709,6 +5826,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5729,6 +5847,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5747,6 +5866,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5876,11 +5996,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="49914063"/>
-        <c:axId val="44757806"/>
+        <c:axId val="20211698"/>
+        <c:axId val="79810110"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49914063"/>
+        <c:axId val="20211698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5912,11 +6032,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44757806"/>
+        <c:crossAx val="79810110"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44757806"/>
+        <c:axId val="79810110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +6078,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49914063"/>
+        <c:crossAx val="20211698"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6023,10 +6143,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127538638395708"/>
-          <c:y val="0.051434103836379"/>
-          <c:w val="0.675437476050581"/>
-          <c:h val="0.797410141595062"/>
+          <c:x val="0.127521062037273"/>
+          <c:y val="0.051440329218107"/>
+          <c:w val="0.675389328567781"/>
+          <c:h val="0.797264584846284"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6256,6 +6376,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6276,6 +6397,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6296,6 +6418,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6316,6 +6439,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6336,6 +6460,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6356,6 +6481,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6376,6 +6502,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6396,6 +6523,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6416,6 +6544,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6436,6 +6565,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6456,6 +6586,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6476,6 +6607,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6496,6 +6628,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6516,6 +6649,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6536,6 +6670,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6556,6 +6691,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -6574,6 +6710,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6703,11 +6840,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="133834"/>
-        <c:axId val="42922469"/>
+        <c:axId val="85262289"/>
+        <c:axId val="88494872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133834"/>
+        <c:axId val="85262289"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6739,11 +6876,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42922469"/>
+        <c:crossAx val="88494872"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42922469"/>
+        <c:axId val="88494872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6785,7 +6922,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133834"/>
+        <c:crossAx val="85262289"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7072,6 +7209,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7092,6 +7230,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7112,6 +7251,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7132,6 +7272,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7152,6 +7293,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7172,6 +7314,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7192,6 +7335,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7212,6 +7356,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7232,6 +7377,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7252,6 +7398,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7272,6 +7419,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7292,6 +7440,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7312,6 +7461,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7332,6 +7482,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7352,6 +7503,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7372,6 +7524,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7390,6 +7543,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7519,11 +7673,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72353768"/>
-        <c:axId val="16567670"/>
+        <c:axId val="81267260"/>
+        <c:axId val="50570325"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72353768"/>
+        <c:axId val="81267260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7555,11 +7709,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16567670"/>
+        <c:crossAx val="50570325"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16567670"/>
+        <c:axId val="50570325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7601,7 +7755,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72353768"/>
+        <c:crossAx val="81267260"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7888,6 +8042,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7908,6 +8063,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7928,6 +8084,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7948,6 +8105,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7968,6 +8126,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -7988,6 +8147,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8008,6 +8168,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8028,6 +8189,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8048,6 +8210,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8068,6 +8231,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8088,6 +8252,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8108,6 +8273,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8128,6 +8294,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8148,6 +8315,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8168,6 +8336,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8188,6 +8357,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8206,6 +8376,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8335,11 +8506,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84126504"/>
-        <c:axId val="28389253"/>
+        <c:axId val="87390623"/>
+        <c:axId val="67981906"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84126504"/>
+        <c:axId val="87390623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8371,11 +8542,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28389253"/>
+        <c:crossAx val="67981906"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28389253"/>
+        <c:axId val="67981906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8417,7 +8588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84126504"/>
+        <c:crossAx val="87390623"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -8481,9 +8652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8491,8 +8662,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10060560" y="1828800"/>
-        <a:ext cx="5635440" cy="2974680"/>
+        <a:off x="10064880" y="1828800"/>
+        <a:ext cx="5639040" cy="2974320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8511,9 +8682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>284040</xdr:colOff>
+      <xdr:colOff>283680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8521,8 +8692,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10079640" y="5562000"/>
-        <a:ext cx="5635440" cy="2973600"/>
+        <a:off x="10083960" y="5562000"/>
+        <a:ext cx="5639040" cy="2973240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8541,9 +8712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>360360</xdr:colOff>
+      <xdr:colOff>360000</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8551,8 +8722,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10154880" y="9247320"/>
-        <a:ext cx="5636520" cy="2974320"/>
+        <a:off x="10159200" y="9247320"/>
+        <a:ext cx="5640120" cy="2973960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8571,9 +8742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>190440</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8582,7 +8753,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="927000" y="9999360"/>
-        <a:ext cx="5880960" cy="3622320"/>
+        <a:ext cx="5883840" cy="3621960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8601,9 +8772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
+      <xdr:colOff>277920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8612,7 +8783,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="309600" y="5380560"/>
-        <a:ext cx="5646240" cy="3324960"/>
+        <a:ext cx="5648400" cy="3324600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8636,9 +8807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8646,8 +8817,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10695600" y="1828800"/>
-        <a:ext cx="5635440" cy="2974680"/>
+        <a:off x="10700640" y="1828800"/>
+        <a:ext cx="5639040" cy="2974320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8666,9 +8837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>360360</xdr:colOff>
+      <xdr:colOff>360000</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8676,8 +8847,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10789920" y="9247320"/>
-        <a:ext cx="5636520" cy="2974320"/>
+        <a:off x="10794960" y="9247320"/>
+        <a:ext cx="5640120" cy="2973960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8696,9 +8867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>422280</xdr:colOff>
+      <xdr:colOff>421920</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8707,7 +8878,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="927000" y="9999360"/>
-        <a:ext cx="5807880" cy="3622320"/>
+        <a:ext cx="5810760" cy="3621960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8726,9 +8897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>509760</xdr:colOff>
+      <xdr:colOff>509400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8737,7 +8908,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="309600" y="5380560"/>
-        <a:ext cx="5572800" cy="3324960"/>
+        <a:ext cx="5574960" cy="3324600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8756,9 +8927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
+      <xdr:colOff>662040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8766,8 +8937,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8177400" y="5347800"/>
-        <a:ext cx="5731560" cy="3324960"/>
+        <a:off x="8181360" y="5347800"/>
+        <a:ext cx="5734440" cy="3324600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8788,10 +8959,10 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O29" activeCellId="1" sqref="C4:C20 O29"/>
+      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
@@ -9328,10 +9499,10 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:C20"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
@@ -9647,7 +9818,7 @@
         <v>13.47</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.21</v>
+        <v>0.196</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0.135</v>

--- a/calibration_5_colors_w_MEA_20230403.xlsx
+++ b/calibration_5_colors_w_MEA_20230403.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">V</t>
   </si>
@@ -71,7 +71,22 @@
     <t xml:space="preserve">Indirect filter/no_filter</t>
   </si>
   <si>
-    <t xml:space="preserve">MEA3_385Cut</t>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">MEA3_625</t>
@@ -84,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">MEA3_415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA3_385Cut</t>
   </si>
 </sst>
 </file>
@@ -251,7 +269,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart209.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -949,11 +967,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="40592446"/>
-        <c:axId val="77391761"/>
+        <c:axId val="91016903"/>
+        <c:axId val="9023323"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40592446"/>
+        <c:axId val="91016903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,11 +1003,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77391761"/>
+        <c:crossAx val="9023323"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77391761"/>
+        <c:axId val="9023323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40592446"/>
+        <c:crossAx val="91016903"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1084,7 +1102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart210.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1099,11 +1117,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250309'!$F$1</c:f>
+              <c:f>'20250304'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>violet (385)</c:v>
+                  <c:v>yellow (530)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1304,17 +1322,1680 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250304'!$C$5:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2366</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2815</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="54247912"/>
+        <c:axId val="37240154"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54247912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37240154"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37240154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54247912"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart211.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127511641257894"/>
+          <c:y val="0.0514465561070088"/>
+          <c:w val="0.675320533265293"/>
+          <c:h val="0.797118992858007"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250304'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blue (415)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
               <a:solidFill>
                 <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
-              <a:ln w="28440">
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250304'!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="83792116"/>
+        <c:axId val="98943065"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83792116"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="4a7ebb"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:round/>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98943065"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98943065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83792116"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart212.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250304'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>green (490)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:dPt>
@@ -1655,8 +3336,1653 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250304'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="60445241"/>
+        <c:axId val="9146063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60445241"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9146063"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="9146063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60445241"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart213.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250304'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>violet (385)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20250304'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20250304'!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.582</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.794</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2893539"/>
+        <c:axId val="69015537"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2893539"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69015537"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69015537"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2893539"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart214.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20250309'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
@@ -1760,71 +5086,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250309'!$C$4:$C$20</c:f>
+              <c:f>'20250309'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0001</c:v>
+                  <c:v>0.069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0023</c:v>
+                  <c:v>0.172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0054</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.035</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.057</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.076</c:v>
+                  <c:v>5.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.101</c:v>
+                  <c:v>8.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.137</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.168</c:v>
+                  <c:v>13.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.196</c:v>
+                  <c:v>15.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.219</c:v>
+                  <c:v>18.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.241</c:v>
+                  <c:v>20.22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26</c:v>
+                  <c:v>21.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.279</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.293</c:v>
+                  <c:v>23.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="24851609"/>
-        <c:axId val="59651040"/>
+        <c:axId val="93135459"/>
+        <c:axId val="86477818"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24851609"/>
+        <c:axId val="93135459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,11 +5179,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59651040"/>
+        <c:crossAx val="86477818"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59651040"/>
+        <c:axId val="86477818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +5225,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24851609"/>
+        <c:crossAx val="93135459"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1955,840 +5278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20250304'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>yellow (530)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20250304'!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20250304'!$C$5:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0618</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0821</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1097</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1485</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1816</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2366</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2815</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="23236805"/>
-        <c:axId val="91615137"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="23236805"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91615137"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="91615137"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23236805"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2800,10 +5290,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127521062037273"/>
-          <c:y val="0.051440329218107"/>
-          <c:w val="0.675389328567781"/>
-          <c:h val="0.797264584846284"/>
+          <c:x val="0.127503508100523"/>
+          <c:y val="0.0514465561070088"/>
+          <c:w val="0.675341242505422"/>
+          <c:h val="0.797118992858007"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2814,2510 +5304,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250304'!$E$1</c:f>
+              <c:f>'20250309'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>blue (415)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20250304'!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20250304'!$E$5:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.0014</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0047</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0233</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0783</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.244</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.272</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.298</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.312</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="41257559"/>
-        <c:axId val="13080789"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="41257559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13080789"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="13080789"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41257559"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20250304'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>green (490)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20250304'!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20250304'!$D$5:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0172</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0408</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0841</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.171</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.207</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.216</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="18469973"/>
-        <c:axId val="31887442"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="18469973"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31887442"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="31887442"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="18469973"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20250304'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>violet (385)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20250304'!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20250304'!$F$5:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.0025</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.315</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.456</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.689</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.918</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.365</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.582</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.794</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="45707909"/>
-        <c:axId val="4692987"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="45707909"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="4692987"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="4692987"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45707909"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20250309'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>red (625)</c:v>
+                  <c:v>Blue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5939,68 +5930,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250309'!$B$5:$B$20</c:f>
+              <c:f>'20250309'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.069</c:v>
+                  <c:v>0.0032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.172</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>0.0071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.42</c:v>
+                  <c:v>0.0244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.56</c:v>
+                  <c:v>0.0414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.72</c:v>
+                  <c:v>0.0579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.42</c:v>
+                  <c:v>0.0821</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.21</c:v>
+                  <c:v>0.1204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.9</c:v>
+                  <c:v>0.1552</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.47</c:v>
+                  <c:v>0.1912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.9</c:v>
+                  <c:v>0.2219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.14</c:v>
+                  <c:v>0.2549</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.22</c:v>
+                  <c:v>0.2823</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.98</c:v>
+                  <c:v>0.3115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.43</c:v>
+                  <c:v>0.3314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="20211698"/>
-        <c:axId val="79810110"/>
+        <c:axId val="71749866"/>
+        <c:axId val="20233819"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20211698"/>
+        <c:axId val="71749866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6032,11 +6023,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79810110"/>
+        <c:crossAx val="20233819"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79810110"/>
+        <c:axId val="20233819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6078,7 +6069,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20211698"/>
+        <c:crossAx val="71749866"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6131,24 +6122,13 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.127521062037273"/>
-          <c:y val="0.051440329218107"/>
-          <c:w val="0.675389328567781"/>
-          <c:h val="0.797264584846284"/>
-        </c:manualLayout>
-      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="1"/>
@@ -6157,11 +6137,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250309'!$E$1</c:f>
+              <c:f>'20250309'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>blue (415)</c:v>
+                  <c:v>Green</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6783,68 +6763,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250309'!$E$5:$E$20</c:f>
+              <c:f>'20250309'!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0032</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0071</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0244</c:v>
+                  <c:v>0.018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0414</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0579</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0821</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1204</c:v>
+                  <c:v>0.087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1552</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1912</c:v>
+                  <c:v>0.135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2219</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2549</c:v>
+                  <c:v>0.177</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2823</c:v>
+                  <c:v>0.197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3115</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3314</c:v>
+                  <c:v>0.229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85262289"/>
-        <c:axId val="88494872"/>
+        <c:axId val="54818235"/>
+        <c:axId val="19689148"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85262289"/>
+        <c:axId val="54818235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,11 +6856,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88494872"/>
+        <c:crossAx val="19689148"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88494872"/>
+        <c:axId val="19689148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6922,7 +6902,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85262289"/>
+        <c:crossAx val="54818235"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6975,7 +6955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6990,11 +6970,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20250309'!$D$1</c:f>
+              <c:f>'20250309'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>green (490)</c:v>
+                  <c:v>Violet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7616,68 +7596,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20250309'!$D$5:$D$20</c:f>
+              <c:f>'20250309'!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001</c:v>
+                  <c:v>0.0113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.002</c:v>
+                  <c:v>0.0215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.004</c:v>
+                  <c:v>0.0358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.018</c:v>
+                  <c:v>0.135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03</c:v>
+                  <c:v>0.238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.042</c:v>
+                  <c:v>0.341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.06</c:v>
+                  <c:v>0.494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.087</c:v>
+                  <c:v>0.747</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.112</c:v>
+                  <c:v>0.994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.135</c:v>
+                  <c:v>1.239</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.157</c:v>
+                  <c:v>1.477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.177</c:v>
+                  <c:v>1.714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.197</c:v>
+                  <c:v>1.943</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.215</c:v>
+                  <c:v>2.175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.229</c:v>
+                  <c:v>2.343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81267260"/>
-        <c:axId val="50570325"/>
+        <c:axId val="50586479"/>
+        <c:axId val="81372338"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81267260"/>
+        <c:axId val="50586479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,11 +7689,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50570325"/>
+        <c:crossAx val="81372338"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50570325"/>
+        <c:axId val="81372338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7755,840 +7735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81267260"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20250309'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>violet (385)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20250309'!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20250309'!$F$5:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.0023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0113</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0215</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.135</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.341</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.494</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.747</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.239</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.477</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.714</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.943</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.175</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="87390623"/>
-        <c:axId val="67981906"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="87390623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67981906"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="67981906"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="87390623"/>
+        <c:crossAx val="50586479"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -8652,9 +7799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8662,8 +7809,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10064880" y="1828800"/>
-        <a:ext cx="5639040" cy="2974320"/>
+        <a:off x="10069560" y="1828800"/>
+        <a:ext cx="5642280" cy="2973960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8682,9 +7829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8692,8 +7839,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10083960" y="5562000"/>
-        <a:ext cx="5639040" cy="2973240"/>
+        <a:off x="10088640" y="5562000"/>
+        <a:ext cx="5642280" cy="2972880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8712,9 +7859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
+      <xdr:colOff>359640</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8722,8 +7869,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10159200" y="9247320"/>
-        <a:ext cx="5640120" cy="2973960"/>
+        <a:off x="10163880" y="9247320"/>
+        <a:ext cx="5643360" cy="2973600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8742,9 +7889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8753,7 +7900,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="927000" y="9999360"/>
-        <a:ext cx="5883840" cy="3621960"/>
+        <a:ext cx="5886720" cy="3621600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8772,9 +7919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277920</xdr:colOff>
+      <xdr:colOff>277560</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8783,7 +7930,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="309600" y="5380560"/>
-        <a:ext cx="5648400" cy="3324600"/>
+        <a:ext cx="5650560" cy="3324240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8807,9 +7954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8817,8 +7964,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10700640" y="1828800"/>
-        <a:ext cx="5639040" cy="2974320"/>
+        <a:off x="10350720" y="1691640"/>
+        <a:ext cx="5642640" cy="2973960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8837,9 +7984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:colOff>359640</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8847,8 +7994,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10794960" y="9247320"/>
-        <a:ext cx="5640120" cy="2973960"/>
+        <a:off x="10445040" y="8515800"/>
+        <a:ext cx="5643720" cy="2973600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8867,9 +8014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>421920</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:colOff>421560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8877,8 +8024,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="927000" y="9999360"/>
-        <a:ext cx="5810760" cy="3621960"/>
+        <a:off x="927000" y="9206640"/>
+        <a:ext cx="5812920" cy="3621600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8897,9 +8044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>509400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:colOff>509040</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8907,8 +8054,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="309600" y="5380560"/>
-        <a:ext cx="5574960" cy="3324600"/>
+        <a:off x="309600" y="4953600"/>
+        <a:ext cx="5576760" cy="3324240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8926,26 +8073,11 @@
       <xdr:rowOff>13680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Graphique 5_0"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8181360" y="5347800"/>
-        <a:ext cx="5734440" cy="3324600"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8962,7 +8094,7 @@
       <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
@@ -9499,36 +8631,38 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -9543,6 +8677,9 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2"/>
@@ -9551,7 +8688,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -9559,7 +8696,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
@@ -9576,6 +8713,9 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -9585,7 +8725,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>0.03</v>
       </c>
@@ -9602,6 +8742,9 @@
         <v>0.0015</v>
       </c>
       <c r="F5" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>0.0023</v>
       </c>
       <c r="H5" s="1"/>
@@ -9611,7 +8754,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>0.05</v>
       </c>
@@ -9628,6 +8771,9 @@
         <v>0.0032</v>
       </c>
       <c r="F6" s="1" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>0.0113</v>
       </c>
       <c r="H6" s="1"/>
@@ -9637,7 +8783,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>0.07</v>
       </c>
@@ -9654,6 +8800,9 @@
         <v>0.005</v>
       </c>
       <c r="F7" s="1" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>0.0215</v>
       </c>
       <c r="H7" s="1"/>
@@ -9663,7 +8812,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>0.1</v>
       </c>
@@ -9682,9 +8831,12 @@
       <c r="F8" s="1" t="n">
         <v>0.0358</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>0.0358</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -9703,9 +8855,12 @@
       <c r="F9" s="1" t="n">
         <v>0.135</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>0.135</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>0.5</v>
       </c>
@@ -9724,9 +8879,12 @@
       <c r="F10" s="1" t="n">
         <v>0.238</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>0.238</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>0.7</v>
       </c>
@@ -9745,9 +8903,12 @@
       <c r="F11" s="1" t="n">
         <v>0.341</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <v>0.341</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>1</v>
       </c>
@@ -9766,9 +8927,12 @@
       <c r="F12" s="1" t="n">
         <v>0.494</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <v>0.494</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>1.5</v>
       </c>
@@ -9787,9 +8951,12 @@
       <c r="F13" s="1" t="n">
         <v>0.747</v>
       </c>
+      <c r="G13" s="1" t="n">
+        <v>0.747</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>2</v>
       </c>
@@ -9808,9 +8975,12 @@
       <c r="F14" s="1" t="n">
         <v>0.994</v>
       </c>
+      <c r="G14" s="1" t="n">
+        <v>0.994</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2.5</v>
       </c>
@@ -9829,9 +8999,12 @@
       <c r="F15" s="1" t="n">
         <v>1.239</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>1.239</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>3</v>
       </c>
@@ -9850,9 +9023,12 @@
       <c r="F16" s="1" t="n">
         <v>1.477</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <v>1.477</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>3.5</v>
       </c>
@@ -9871,9 +9047,12 @@
       <c r="F17" s="1" t="n">
         <v>1.714</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>4</v>
       </c>
@@ -9892,9 +9071,12 @@
       <c r="F18" s="1" t="n">
         <v>1.943</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>4.5</v>
       </c>
@@ -9913,9 +9095,12 @@
       <c r="F19" s="1" t="n">
         <v>2.175</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>5</v>
       </c>
@@ -9934,35 +9119,38 @@
       <c r="F20" s="1" t="n">
         <v>2.343</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>16</v>
+      <c r="G20" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
@@ -9981,8 +9169,11 @@
       <c r="F23" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="G23" s="1" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>13</v>
       </c>
@@ -10006,15 +9197,20 @@
         <f aca="false">F23/F20</f>
         <v>19.2061459667093</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">G23/G20</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>15</v>
       </c>
@@ -10036,6 +9232,10 @@
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">F25/F20</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">G25/G20</f>
         <v>0</v>
       </c>
     </row>

--- a/calibration_5_colors_w_MEA_20230403.xlsx
+++ b/calibration_5_colors_w_MEA_20230403.xlsx
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Violet</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
+    <t xml:space="preserve">595xDM605xF600</t>
   </si>
   <si>
     <t xml:space="preserve">MEA3_625</t>
@@ -269,7 +269,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart209.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -967,11 +967,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91016903"/>
-        <c:axId val="9023323"/>
+        <c:axId val="86329484"/>
+        <c:axId val="28123379"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91016903"/>
+        <c:axId val="86329484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,11 +1003,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9023323"/>
+        <c:crossAx val="28123379"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9023323"/>
+        <c:axId val="28123379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91016903"/>
+        <c:crossAx val="86329484"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1102,7 +1102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart210.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1800,11 +1800,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54247912"/>
-        <c:axId val="37240154"/>
+        <c:axId val="96677909"/>
+        <c:axId val="3776001"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54247912"/>
+        <c:axId val="96677909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,11 +1836,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37240154"/>
+        <c:crossAx val="3776001"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37240154"/>
+        <c:axId val="3776001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1882,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54247912"/>
+        <c:crossAx val="96677909"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1935,7 +1935,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart211.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1947,10 +1947,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127511641257894"/>
-          <c:y val="0.0514465561070088"/>
-          <c:w val="0.675320533265293"/>
-          <c:h val="0.797118992858007"/>
+          <c:x val="0.127476587883035"/>
+          <c:y val="0.051459014408524"/>
+          <c:w val="0.675224565203542"/>
+          <c:h val="0.796827703111757"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2644,11 +2644,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="83792116"/>
-        <c:axId val="98943065"/>
+        <c:axId val="21878783"/>
+        <c:axId val="43302312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83792116"/>
+        <c:axId val="21878783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,11 +2680,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98943065"/>
+        <c:crossAx val="43302312"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98943065"/>
+        <c:axId val="43302312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2726,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83792116"/>
+        <c:crossAx val="21878783"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2779,7 +2779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart212.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3477,11 +3477,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="60445241"/>
-        <c:axId val="9146063"/>
+        <c:axId val="99295255"/>
+        <c:axId val="41207393"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60445241"/>
+        <c:axId val="99295255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3513,11 +3513,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9146063"/>
+        <c:crossAx val="41207393"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9146063"/>
+        <c:axId val="41207393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60445241"/>
+        <c:crossAx val="99295255"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3612,7 +3612,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart213.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4310,11 +4310,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="2893539"/>
-        <c:axId val="69015537"/>
+        <c:axId val="88529595"/>
+        <c:axId val="85537513"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2893539"/>
+        <c:axId val="88529595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,11 +4346,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69015537"/>
+        <c:crossAx val="85537513"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69015537"/>
+        <c:axId val="85537513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,7 +4392,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2893539"/>
+        <c:crossAx val="88529595"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4445,7 +4445,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart214.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5143,11 +5143,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93135459"/>
-        <c:axId val="86477818"/>
+        <c:axId val="6919624"/>
+        <c:axId val="25049151"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93135459"/>
+        <c:axId val="6919624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5179,11 +5179,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86477818"/>
+        <c:crossAx val="25049151"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86477818"/>
+        <c:axId val="25049151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5225,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93135459"/>
+        <c:crossAx val="6919624"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5278,7 +5278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5290,10 +5290,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127503508100523"/>
-          <c:y val="0.0514465561070088"/>
-          <c:w val="0.675341242505422"/>
-          <c:h val="0.797118992858007"/>
+          <c:x val="0.127476587883035"/>
+          <c:y val="0.051459014408524"/>
+          <c:w val="0.675224565203542"/>
+          <c:h val="0.796827703111757"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5987,11 +5987,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="71749866"/>
-        <c:axId val="20233819"/>
+        <c:axId val="97967751"/>
+        <c:axId val="16872181"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71749866"/>
+        <c:axId val="97967751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6023,11 +6023,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20233819"/>
+        <c:crossAx val="16872181"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20233819"/>
+        <c:axId val="16872181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,7 +6069,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71749866"/>
+        <c:crossAx val="97967751"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6122,7 +6122,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6820,11 +6820,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54818235"/>
-        <c:axId val="19689148"/>
+        <c:axId val="25006036"/>
+        <c:axId val="86193447"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54818235"/>
+        <c:axId val="25006036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6856,11 +6856,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19689148"/>
+        <c:crossAx val="86193447"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19689148"/>
+        <c:axId val="86193447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6902,7 +6902,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54818235"/>
+        <c:crossAx val="25006036"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6955,7 +6955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7653,11 +7653,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="50586479"/>
-        <c:axId val="81372338"/>
+        <c:axId val="87317137"/>
+        <c:axId val="44139172"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50586479"/>
+        <c:axId val="87317137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7689,11 +7689,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81372338"/>
+        <c:crossAx val="44139172"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81372338"/>
+        <c:axId val="44139172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7735,7 +7735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50586479"/>
+        <c:crossAx val="87317137"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7799,9 +7799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7809,8 +7809,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10069560" y="1828800"/>
-        <a:ext cx="5642280" cy="2973960"/>
+        <a:off x="10078200" y="1828800"/>
+        <a:ext cx="5649480" cy="2973240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7829,9 +7829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7839,8 +7839,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10088640" y="5562000"/>
-        <a:ext cx="5642280" cy="2972880"/>
+        <a:off x="10097280" y="5562000"/>
+        <a:ext cx="5649480" cy="2972160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7859,9 +7859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>358920</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7869,8 +7869,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10163880" y="9247320"/>
-        <a:ext cx="5643360" cy="2973600"/>
+        <a:off x="10172520" y="9247320"/>
+        <a:ext cx="5650560" cy="2972880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7889,9 +7889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190080</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7900,7 +7900,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="927000" y="9999360"/>
-        <a:ext cx="5886720" cy="3621600"/>
+        <a:ext cx="5892480" cy="3620880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7919,9 +7919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>276840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7930,7 +7930,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="309600" y="5380560"/>
-        <a:ext cx="5650560" cy="3324240"/>
+        <a:ext cx="5654880" cy="3323520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7954,9 +7954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7964,8 +7964,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10350720" y="1691640"/>
-        <a:ext cx="5642640" cy="2973960"/>
+        <a:off x="10360800" y="1691640"/>
+        <a:ext cx="5649480" cy="2973240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7984,9 +7984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>358920</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7994,8 +7994,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10445040" y="8515800"/>
-        <a:ext cx="5643720" cy="2973600"/>
+        <a:off x="10455120" y="8515800"/>
+        <a:ext cx="5650560" cy="2972880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8014,9 +8014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>421560</xdr:colOff>
+      <xdr:colOff>420840</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8025,7 +8025,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="927000" y="9206640"/>
-        <a:ext cx="5812920" cy="3621600"/>
+        <a:ext cx="5817240" cy="3620880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8044,9 +8044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>509040</xdr:colOff>
+      <xdr:colOff>508320</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8055,7 +8055,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="309600" y="4953600"/>
-        <a:ext cx="5576760" cy="3324240"/>
+        <a:ext cx="5579640" cy="3323520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8063,21 +8063,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>925200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
-    </xdr:to>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8094,7 +8079,7 @@
       <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
@@ -8634,7 +8619,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.72"/>
   </cols>
@@ -8679,7 +8664,7 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2"/>
@@ -8745,7 +8730,7 @@
         <v>0.0023</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="2"/>
@@ -8774,7 +8759,7 @@
         <v>0.0113</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.0113</v>
+        <v>0.069</v>
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="2"/>
@@ -8803,7 +8788,7 @@
         <v>0.0215</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.0215</v>
+        <v>0.172</v>
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="2"/>
@@ -8832,7 +8817,7 @@
         <v>0.0358</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.0358</v>
+        <v>0.33</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -8856,7 +8841,7 @@
         <v>0.135</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.135</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -8880,7 +8865,7 @@
         <v>0.238</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.238</v>
+        <v>2.56</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -8904,7 +8889,7 @@
         <v>0.341</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.341</v>
+        <v>3.72</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -8928,7 +8913,7 @@
         <v>0.494</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.494</v>
+        <v>5.42</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -8952,7 +8937,7 @@
         <v>0.747</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.747</v>
+        <v>8.21</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -8976,7 +8961,7 @@
         <v>0.994</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.994</v>
+        <v>10.9</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -9000,7 +8985,7 @@
         <v>1.239</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1.239</v>
+        <v>13.47</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -9024,7 +9009,7 @@
         <v>1.477</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1.477</v>
+        <v>15.9</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9048,7 +9033,7 @@
         <v>1.714</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>2</v>
+        <v>18.14</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -9072,7 +9057,7 @@
         <v>1.943</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>3</v>
+        <v>20.22</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -9096,7 +9081,7 @@
         <v>2.175</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>4</v>
+        <v>21.98</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -9120,7 +9105,7 @@
         <v>2.343</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>5</v>
+        <v>23.43</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -9147,7 +9132,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9169,8 +9154,8 @@
       <c r="F23" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>100</v>
+      <c r="G23" s="0" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9199,7 +9184,7 @@
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">G23/G20</f>
-        <v>20</v>
+        <v>320.102432778489</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,7 +9193,6 @@
       </c>
       <c r="C25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
